--- a/biology/Zoologie/Belenois_aurota/Belenois_aurota.xlsx
+++ b/biology/Zoologie/Belenois_aurota/Belenois_aurota.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Belenois aurota est une espèce de lépidoptères de la famille des Pieridae, de la sous-famille des Pierinae et du genre Belenois.
 </t>
@@ -511,17 +523,15 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>L'espèce a été décrite par l'entomologiste danois Johan Christian Fabricius en 1793, initialement classée dans le genre Papilio sous le protonyme Papilio aurota Fabricius, 1793[1].
-Le nom valide complet (avec auteur) de ce taxon est Belenois aurota (Fabricius, 1793)[1]. 
-Belenois aurota a pour synonymes[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>L'espèce a été décrite par l'entomologiste danois Johan Christian Fabricius en 1793, initialement classée dans le genre Papilio sous le protonyme Papilio aurota Fabricius, 1793.
+Le nom valide complet (avec auteur) de ce taxon est Belenois aurota (Fabricius, 1793). 
+Belenois aurota a pour synonymes :
 Anaphaeis aurotota (Fabricius, 1793)
-Papilio aurota Fabricius, 1793
-Liste des sous-espèces[réf. nécessaire]
-Belenois aurota aurota en Inde, Afrique tropicale et à Madagascar.
-Belenois aurota augusta (Olivier, 1801).
-Belenois aurota tabrobana Moore à Ceylan.</t>
+Papilio aurota Fabricius, 1793</t>
         </is>
       </c>
     </row>
@@ -546,13 +556,20 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Répartition</t>
+          <t>Systématique</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Il est présent en Inde, au Pakistan, en Afghanistan, en Arabie et dans toute l'Afrique sauf au Sahara et en Afrique du Nord.
-</t>
+          <t>Liste des sous-espèces[réf. nécessaire]</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Belenois aurota aurota en Inde, Afrique tropicale et à Madagascar.
+Belenois aurota augusta (Olivier, 1801).
+Belenois aurota tabrobana Moore à Ceylan.</t>
         </is>
       </c>
     </row>
@@ -577,10 +594,45 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Répartition</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est présent en Inde, au Pakistan, en Afghanistan, en Arabie et dans toute l'Afrique sauf au Sahara et en Afrique du Nord.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Belenois_aurota</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Belenois_aurota</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Les larves vivent sur les plantes de la famille des Capparaceae en particulier des genres Boscia, Maerua et Capparis.
 			Œufs
@@ -592,33 +644,35 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>Belenois_aurota</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Zoologie/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Belenois_aurota</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Divers</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Sultanat d'Oman lui a dédié un timbre, émis en 2000[2].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Sultanat d'Oman lui a dédié un timbre, émis en 2000.
 </t>
         </is>
       </c>
